--- a/src/test/java/hypertensionData/HypertensionRecipeList.xlsx
+++ b/src/test/java/hypertensionData/HypertensionRecipeList.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shan\eclipse-workspace\Recipe1\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shan\eclipse-workspace\Team_14-Scrape_Hunt-RecipeScrappingHackathon\src\test\java\hypertensionData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="426">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -147,12 +147,2765 @@
   <si>
     <t>https://www.tarladalal.com/one-meal-soup-healthy-indian-dal-vegetable-soup-22312r</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 5535</t>
+  </si>
+  <si>
+    <t>Garlic Vegetable Soup ( Healthy Heart)</t>
+  </si>
+  <si>
+    <t>For Garlic Vegetable Soup
+2 tsp finely chopped garlic (lehsun)
+1 cup chopped and boiled mixed vegetables
+1 tsp oil
+1/4 cup finely chopped onions
+salt and to taste
+2 tbsp quick cooking rolled oats
+2 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>Method
+For garlic vegetable soup
+To make garlic vegetable soup, heat the oil in a deep non-stick pan, add the garlic and onions and sauté on a medium flame for 1 to 2 minutes.
+Add the mixed vegetables, 3 cups of water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the oats and coriander, mix well and cook on a medium flame for another 1 minute.
+Serve the garlic vegetable soup hot.</t>
+  </si>
+  <si>
+    <t>Energy 43 cal
+Protein 1.7 g
+Carbohydrates 5.8 g
+Fiber 1.9 g
+Fat 1.5 g
+Cholesterol 0 mg
+Sodium 8.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/garlic-vegetable-soup---healthy-heart-5535r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6222</t>
+  </si>
+  <si>
+    <t>Anti Cholesterol Shake</t>
+  </si>
+  <si>
+    <t>For Anti Cholesterol Shake
+2 cups chopped papaya
+3/4 cup orange segments
+3/4 cup chopped bananas
+1/4 tsp vanilla extract or vanilla essence
+20 ice-cubes</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Method
+For anti cholesterol shake
+To make anti cholesterol shake in a mixer, combine the papaya, orange, banana, vanilla extract or essence and 20 ice cubes.
+Blend till smooth and frothy.
+Serve anti cholesterol shake immediately.</t>
+  </si>
+  <si>
+    <t>Energy 103 cal
+Protein 1.5 g
+Carbohydrates 23.3 g
+Fiber 2.3 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 8.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti-cholesterol-shake-6222r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22309</t>
+  </si>
+  <si>
+    <t>Cabbage and Dal Parathas</t>
+  </si>
+  <si>
+    <t>For The Cabbage and Dal Parathas Dough
+1 cup whole wheat flour (gehun ka atta)
+1/4 tsp salt
+For The Cabbage and Dal Parathas Stuffing
+3/4 cup finely chopped cabbage
+1/4 cup yellow moong dal (split yellow gram) , soaked and parboiled
+1 tsp oil
+1 tsp fennel seeds (saunf)
+1/4 cup finely chopped onions
+2 tsp finely chopped green chillies
+1/4 cup finely chopped mint leaves (phudina)
+a pinch of turmeric powder (haldi)
+2 tsp dried mango powder (amchur)
+1/8 tsp salt
+1 tsp grated ginger (adrak)
+Other Ingredients
+whole wheat flour (gehun ka atta) for rolling
+1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the dough of cabbage and dal paratha
+To make the dough for cabbage and dal paratha, combine the flour and salt together in a bowl and add enough water to make soft dough.
+Knead well for 3 to 4 minutes and keep aside.
+For the stuffing of cabbage and dal paratha
+Heat the oil in a non-stick pan and fry the fennel seeds in it for a few seconds.
+Add the onions and sauté till they turn golden brown in colour.
+Add the green chillies and cabbage and cook on a medium flame for 1 minute.
+Add the moong dal, mint leaves, turmeric powder, amchur, salt, 1 tbsp of water and mix well and cook on a medium flame for 2 minute.
+Remove from the flame divide into 5 equal portions and keep aside.
+How to proceed to make cabbage and dal paratha
+Divide the dough into 5 equal portions.
+Roll out each portion of the dough into a circle of about 100 mm. (4") diameter using a little flour for rolling.
+Place 1 portion of the stuffing in the centre of the circle.
+Bring together all the sides in the centre and seal tightly.
+Roll out again into a circle of 125 mm. (5") diameter using a little wheat flour for rolling.
+Cook on a non-stick pan on both sides using ¼ teaspoon oil until brown spots appear.
+Repeat with the remaining dough and stuffing to make 4 more cabbage and dal parathas.
+Serve the cabbage and dal parathas hot.</t>
+  </si>
+  <si>
+    <t>Energy 129 cal
+Protein 5 g
+Carbohydrates 21.9 g
+Fiber 3.8 g
+Fat 2.7 g
+Cholesterol 0 mg
+Sodium 202.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-and-dal-parathas-22309r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35094</t>
+  </si>
+  <si>
+    <t>Multiseed Mukhwas ( Omega-3 Fatty Acids and Fibre Rich Recipe )</t>
+  </si>
+  <si>
+    <t>For Multiseed Mukhwas
+1/4 cup flax seeds
+1/4 cup black sesame seeds (kala til)
+1/4 cup white sesame seeds (til)
+1/4 cup fennel seeds (saunf)
+1 tbsp lemon juice
+1/2 tsp salt
+1/2 tsp powdered sugar</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>3 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a bowl, add the lemon juice and salt and mix well. Cover and keep aside for 1 hour.
+Dry roast it on a broad non-stick pan for 2 to 3 minutes till it starts giving a good aroma.
+Cool slightly, add the sugar and mix well.
+Cool completely and store in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Energy 43 cal
+Protein 1.4 g
+Carbohydrates 2.4 g
+Fiber 1.6 g
+Fat 3.2 g
+Cholesterol 0 mg
+Sodium 112.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/multiseed-mukhwas--omega-3-fatty-acids-and-fibre-rich-recipe--35094r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42032</t>
+  </si>
+  <si>
+    <t>Rajma Brown Rice, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>For Rajma Brown Rice
+1/2 cup rajma (kidney beans)
+3 cups soaked and cooked brown rice
+1 1/2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1/2 cup sliced onions
+1/2 tsp ginger-garlic (adrak-lehsun) paste
+1/2 cup chopped tomatoes
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>28 mins</t>
+  </si>
+  <si>
+    <t>Method
+For rajma brown rice
+To make rajma brown rice, soak the rajma in enough water in a deep bowl for 8 hours. Drain well and keep aside.
+Heat the oil in a pressure cooker and add the cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the onions and ginger-garlic paste and sauté on a medium flame for 2 to 3 minutes.
+Add the tomatoes, turmeric powder, chilli powder, coriander-cumin seeds powder and salt, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the rajma and 1 cup of water, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Add the cooked brown rice, mix gently and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve the rajma brown rice hot.</t>
+  </si>
+  <si>
+    <t>Energy 165 cal
+Protein 5.2 g
+Carbohydrates 30.7 g
+Fiber 1.8 g
+Fat 2.3 g
+Cholesterol 0 mg
+Sodium 67.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-brown-rice-low-salt-recipe-42032r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 763</t>
+  </si>
+  <si>
+    <t>Anti- Aging Breakfast Platter</t>
+  </si>
+  <si>
+    <t>For Anti- Aging Breakfast Platter
+2 tbsp sprouted moong (whole green gram)
+1/4 cup low fat paneer (cottage cheese) cubes
+1/4 tsp chilli powder
+1/4 tsp cumin seeds (jeera) powder
+1/4 tsp rock salt (sendha namak)
+6 oranges segments
+1/2 cup watermelon (tarbuj) balls
+1/4 cup green grapes
+2 dates (khajur)
+4 walnuts (akhrot)
+5 almonds (badam)</t>
+  </si>
+  <si>
+    <t>Method
+For anti- aging breakfast platter
+To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
+Arrange all the ingredients on a platter and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 324 cal
+Protein 15 g
+Carbohydrates 46.1 g
+Fiber 5.8 g
+Fat 9 g
+Cholesterol 0.1 mg
+Sodium 153.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42265</t>
+  </si>
+  <si>
+    <t>Quinoa Veg Upma, Vegan Breakfast</t>
+  </si>
+  <si>
+    <t>For Quinoa Veg Upma
+1/2 cup quinoa , washed and drained
+2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+1 tsp finely chopped green chillies
+1/2 tsp finely chopped ginger (adrak)
+4 curry leaves (kadi patta)
+2 tbsp raw peanuts
+1/2 cup finely chopped onions
+1/2 cup green peas
+1/4 cup finely chopped carrot
+1/4 tsp chilli powder
+salt to taste
+1/4 cup finely chopped coriander (dhania)
+1 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>Method
+For quinoa veg upma
+To make quinoa veg upma, heat the oil in a deep non-stick pan, add the mustard seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the green chillies, ginger and curry leaves and sauté on a medium flame for a few seconds.
+Add the peanuts and sauté on a medium flame for 1 minute.
+Add the onions and sauté on a medium flame for 2 minutes.
+Add the green peas and carrot and sauté on a medium flame for 2 minutes.
+Add the quinoa and sauté on a medium flame for 1 minute.
+Add the chilli powder, salt and 2¼ cups of hot water, mix well cover with a lid and cook on a medium flame for 20 to 22 minutes, while stirring occasionally.
+Switch off the flame, add the coriander and lemon juice and mix well.
+Serve the quinoa veg upma immediately.</t>
+  </si>
+  <si>
+    <t>Energy 150 cal
+Protein 5.3 g
+Carbohydrates 22.8 g
+Fiber 6.9 g
+Fat 5.1 g
+Cholesterol 0 mg
+Sodium 5.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/quinoa-veg-upma-vegan-breakfast-42265r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1331</t>
+  </si>
+  <si>
+    <t>Tomato, Orange, Carrot and Papaya Juice</t>
+  </si>
+  <si>
+    <t>For Tomato , Orange , Carrot and Papaya Juice
+3 cups chopped tomatoes
+1 cup orange segments , cut into halves
+1 cup peeled and chopped carrot
+1/4 cup papaya cubes
+1/2 tsp lemon juice
+salt to taste
+For Serving With Tomato , Orange , Carrot and Papaya Juice
+4 few ice-cubes</t>
+  </si>
+  <si>
+    <t>Method
+For tomato, orange, carrot and papaya juice
+To make tomato orange carrot and papaya juice, combine all the ingredients along with ¾ cup of water in a mixer and blend till smooth. Strain
+Strain the mixture using a strainer.
+Pour equal quantities of the juice into 4 individual glasses and top with 1 ice cube in each glass.
+Serve the tomato orange carrot and papaya juice immediately.</t>
+  </si>
+  <si>
+    <t>Energy 67 cal
+Protein 1.8 g
+Carbohydrates 13.9 g
+Fiber 4.3 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 31.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tomato-orange-carrot-and-papaya-juice-1331r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7440</t>
+  </si>
+  <si>
+    <t>Oats and Vegetable Broth</t>
+  </si>
+  <si>
+    <t>For Oats and Vegetable Broth
+1/2 cup quick cooking rolled oats
+2 tbsp finely chopped tomatoes
+2 tbsp finely chopped capsicum
+2 tbsp finely chopped cauliflower
+2 tbsp finely chopped carrot
+2 tbsp finely chopped cabbage
+2 tsp oil
+1/4 cup finely chopped onions
+2 tsp finely chopped garlic (lehsun)
+1 tsp finely chopped green chillies
+salt and to taste
+2 tbsp finely chopped coriander (dhania)
+1/4 cup finely chopped parsley
+2 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>7 mins</t>
+  </si>
+  <si>
+    <t>Method
+For oats and vegetable broth
+To make oats and vegetable broth, heat the oil in a deep non-stick pan, add the onions, garlic and green chillies and sauté on a medium flame for 1 minute.
+Add all the vegetables and sauté on a medium flame for another 2 minutes.
+Add the oats and sauté on a medium flame for 1 more minute.
+Add 3 cups of hot water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the coriander and parsley, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the lemon juice and mix well.
+Serve the oats and vegetable broth immediately.</t>
+  </si>
+  <si>
+    <t>Energy 90 cal
+Protein 2.4 g
+Carbohydrates 12.7 g
+Fiber 3.4 g
+Fat 3.3 g
+Cholesterol 0 mg
+Sodium 18.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-and-vegetable-broth-7440r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22219</t>
+  </si>
+  <si>
+    <t>Cauliflower and Bajra Roti, Bajra Gobi Paratha</t>
+  </si>
+  <si>
+    <t>For Cauliflower and Bajra Roti
+1/2 cup bajra (black millet) flour
+3/4 cup grated cauliflower
+1 1/2 tbsp finely chopped spring onions whites
+1 1/2 tbsp finely chopped spring onion greens
+2 tbsp finely chopped coriander (dhania)
+1/2 tsp ginger-green chilli paste
+1/2 tsp grated garlic (lehsun)
+salt to taste
+Other Ingredients For Cauliflower and Bajra Roti
+bajra (black millet) flour for rolling
+1 3/4 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>Method
+For cauliflower and bajra roti
+To make cauliflower and bajra roti, combine all the ingredients and knead into a soft-smooth dough, using enough water.
+Divide the dough into 6 equal portions.
+Roll out one portion of the dough into a circle of 100 mm. (4") diameter.
+Heat a non-stick tava (griddle) using 1/4 tsp of oil.
+Place the roti on it and cook it, using 1/4 tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat steps 3 to 5 to make 5 more parathas.
+Serve the cauliflower and bajra roti immediately.</t>
+  </si>
+  <si>
+    <t>Energy 46 cal
+Protein 1.2 g
+Carbohydrates 6 g
+Fiber 1.3 g
+Fat 1.9 g
+Cholesterol 0 mg
+Sodium 6.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cauliflower-and-bajra-roti-bajra-gobi-paratha-22219r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38556</t>
+  </si>
+  <si>
+    <t>Basic Vegetable Stock</t>
+  </si>
+  <si>
+    <t>For Basic Vegetable Stock
+1/4 cup cauliflower florets
+1/4 cup roughly chopped onions
+1/4 cup roughly chopped cabbage
+1/4 cup roughly chopped carrot
+2 tbsp roughly chopped celery (ajmoda)</t>
+  </si>
+  <si>
+    <t>Method
+For basic vegetable stock
+To make the basic vegetable stock, boil 3 cups of water in a deep non-stick pan.
+Add the cauliflower, onions, cabbage, carrots and celery and boil on a high flame for 10 minutes.
+Strain the water using a strainer and discard the vegetables.
+Use the basic vegetable stock as required.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/basic-vegetable-stock-38556r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22267</t>
+  </si>
+  <si>
+    <t>Fresh Garlic Chutney</t>
+  </si>
+  <si>
+    <t>For Garlic Chutney
+3/4 cup roughly chopped garlic (lehsun)
+1 tbsp chilli powder
+1 tsp tamarind (imli) pulp
+2 tsp coriander (dhania) powder
+1/2 tbsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For garlic chutney
+To make garlic chutney, combine all the ingredients along with ¼ cup of water in a mixer, mix well and blend to a smooth paste.
+Keep the garlic chutney refrigerated and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 15 cal
+Protein 0.7 g
+Carbohydrates 2.7 g
+Fiber 0.6 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 1.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fresh-garlic-chutney-22267r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32997</t>
+  </si>
+  <si>
+    <t>Paneer Tamatar Paratha</t>
+  </si>
+  <si>
+    <t>For The Chapatis
+1 1/2 cups whole wheat flour (gehun ka atta)
+salt to taste
+1 1/2 tsp oil for kneading and cooking
+whole wheat flour (gehun ka atta) for rolling
+To Be Mixed Into A Stuffing
+1/2 cup crumbled low fat paneer (cottage cheese)
+3/4 cup deseeded and chopped tomatoes
+1/4 cup chopped yellow capsicum
+1 tsp finely chopped green chillies
+2 tbsp finely chopped coriander (dhania)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For the chapatis
+Combine all the ingredients in a deep bowl and knead into a semi-soft dough using enough water.
+Cover the dough with a lid and keep aside for 15 minutes.
+Knead again using ¼ tsp oil till smooth.
+How to proceed
+To make paneer tamatar paratha, divide the stuffing into 10 equal portions and keep aside.
+Divide the dough into 10 equal portions.
+Roll a portion of the dough into a 150 mm. (6”) diameter circle using a little wheat flour for rolling. Spread a portion of the stuffing on half of the circle and fold it over to make a semi-circle.
+Heat a non-stick tava (griddle) and cook the paratha, using ¼ tsp of oil, till golden brown spots appear on both the sides.
+Repeat steps 3 and 4 to make 9 more parathas.
+Serve the paneer tamatar paratha immediately.</t>
+  </si>
+  <si>
+    <t>Energy 80 cal
+Protein 2.8 g
+Carbohydrates 15.1 g
+Fiber 2.7 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 9.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/paneer-tamatar-paratha-32997r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7457</t>
+  </si>
+  <si>
+    <t>Nutritious Thalipeeth</t>
+  </si>
+  <si>
+    <t>For Nutritious Thalipeeth
+3 tbsp bajra (black millet) flour
+3 tbsp jowar (white millet) flour
+3 tbsp whole wheat flour (gehun ka atta)
+3 tbsp besan (bengal gram flour)
+3/4 cup shredded cabbage
+1/4 cup chopped onions
+1/2 tsp finely chopped green chillies
+1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+2 tbsp chopped coriander (dhania)
+salt to taste
+1 1/2 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Method
+For nutritious thalipeeth
+To nutritious thalipeeth, combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into 6 equal portions and keep aside.
+Heat a non-stick tava (griddle) and grease it lightly using one eight tsp of oil.
+Wet your fingers, place a portion of the dough on a hot tava (griddle) and pat it with the help of fingers to make a 100 mm (4”) diameter circle.
+Cook on both the sides, using one eight tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat steps 3 to 5 to make 5 more nutritious thalipeeth.
+Serve the nutritious thalipeeth immediately.</t>
+  </si>
+  <si>
+    <t>Energy 88 cal
+Protein 3.2 g
+Carbohydrates 14.1 g
+Fiber 2.9 g
+Fat 2.1 g
+Cholesterol 0 mg
+Sodium 9.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nutritious-thalipeeth-7457r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38880</t>
+  </si>
+  <si>
+    <t>Jowar Bajra Garlic Roti</t>
+  </si>
+  <si>
+    <t>For Jowar Bajra Garlic Roti
+1/2 cup jowar (white millet) flour
+1/2 cup bajra (black millet) flour
+1 tsp garlic (lehsun) paste
+1/2 tsp green chilli paste
+1/2 tbsp sesame seeds (til)
+salt to taste
+jowar (white millet) flour for rolling
+ghee for smearing</t>
+  </si>
+  <si>
+    <t>Method
+For jowar bajra garlic roti
+Combine all the ingredients in a deep bowl and knead into a soft dough using enough warm water.
+Divide the dough into 6 equal portions.
+Roll out a portion into a circle of 150 mm. (6") diameter using a little jowar flour for rolling.
+Heat a non-stick tava (griddle), place the jowar bajra garlic roti over it and cook it for a few seconds.
+Turn over the roti and cook the other side for a few more seconds.
+Lift the jowar bajra garlic roti with a pair of flat tongs and roast over an open flame till brown spots appear on both sides.
+Repeat steps 3 to 6 to make 5 more jowar bajra garlic roti.
+Serve the jowar bajra garlic roti immediately smeared with ghee.</t>
+  </si>
+  <si>
+    <t>Energy 86 cal
+Protein 2 g
+Carbohydrates 11.7 g
+Fiber 1.9 g
+Fat 3.4 g
+Cholesterol 0 mg
+Sodium 1.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-bajra-garlic-roti-38880r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40446</t>
+  </si>
+  <si>
+    <t>Carrot and Bell Pepper Soup</t>
+  </si>
+  <si>
+    <t>1/2 cup roughly chopped carrot
+1/2 cup roughly chopped red capsicum
+1/2 cup roughly chopped yellow capsicum
+1/2 cup roughly chopped green capsicum
+1/2 cup roughly chopped tomatoes
+1/2 tsp dried mixed herbs
+1/2 tsp dry red chilli flakes (paprika)
+1/8 tsp salt
+1/4 tsp freshly ground black pepper (kalimirch)</t>
+  </si>
+  <si>
+    <t>Method
+Combine the carrot, red, yellow and green capsicum, tomatoes and 1 cup of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Cool slightly and bend in a mixer till smooth.
+Transfer the mixture into a deep non-stick pan, add the mixed herbs, chilli flakes, salt, pepper and ¼ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 49 cal
+Protein 1.9 g
+Carbohydrates 9.6 g
+Fiber 4.4 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 215.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-bell-pepper-soup-40446r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42659</t>
+  </si>
+  <si>
+    <t>Vegetable Bulgur Wheat Khichdi, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup broken wheat (dalia)
+1 tsp oil
+1/2 tsp cumin seeds (jeera)
+a pinch of asafoetida (hing)
+1/2 tsp finely chopped ginger (adrak)
+1 tsp finely chopped garlic (lehsun)
+1/4 cup finely chopped onions
+1/4 cup finely chopped tomatoes
+1/4 cup finely chopped cauliflower
+1/4 cup finely chopped bottle gourd (doodhi / lauki)
+1/2 tsp chilli powder
+1/8 tsp turmeric powder (haldi)
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+Put the bulgur wheat in a broad non-stick pan and dry roast on a medium flame for 2 to 3 minutes. Keep aside.
+Heat the oil in a pressure cooker, add the cumin seeds and asafoetida and saute on a medium flame for 30 seconds.
+Add the ginger, garlic and onions and saute on a medium flame for 1 minute.
+Add the tomatoes, cauliflower and bottle gourd, mix well and cook on a medium flame for 1 to 2 minutes, while stirring continuously.
+Add the bulgur wheat, chilly powder, turmeric powder, salt and 2 cups of water, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Add 5 tbsp of water, mix well and cook on a medium flame for 1 minute while mashing the khichdi lightly.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 174 cal
+Protein 3.9 g
+Carbohydrates 32.2 g
+Fiber 2 g
+Fat 3.2 g
+Cholesterol 0 mg
+Sodium 208.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vegetable-bulgur-wheat-khichdi-low-salt-recipe-42659r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7445</t>
+  </si>
+  <si>
+    <t>Minty Couscous</t>
+  </si>
+  <si>
+    <t>For Minty Couscous
+2 tbsp chopped mint leaves (phudina)
+1/2 cup couscous
+1 cup low fat milk , 99.7 % fat-free
+1/2 cup chopped tomatoes
+1/2 cup chopped spring onions
+1/4 cup chopped coriander (dhania)
+2 tsp olive oil
+2 tsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>Method
+For minty couscous
+To make minty couscous, clean and wash the couscous thoroughly.
+Combine the couscous and milk in a deep non-stick pan, mix well and cook on a medium flame for 3 to 4 minutes or till it is tender. Keep aside to cool slightly.
+Combine all the ingredients, including the cooked couscous, in a deep bowl and mix gently.
+Refrigerate for at least half an hour.
+Serve the minty couscous chilled.</t>
+  </si>
+  <si>
+    <t>Energy 134 cal
+Protein 5.1 g
+Carbohydrates 21.8 g
+Fiber 1.9 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 31.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/minty-couscous-7445r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39073</t>
+  </si>
+  <si>
+    <t>Garlic and Tendli Pickle</t>
+  </si>
+  <si>
+    <t>1/2 cup finely chopped garlic (lehsun)
+1/2 cup tendli rings
+2 tsp finely chopped green chillies
+a pinch of asafoetida (hing)
+2 tsp oil
+To Be Mixed Into A Masala
+2 tsp split mustard seeds (rai na kuria)
+2 tsp split fenugreek seeds (methi na kuria)
+1 tsp chilli powder
+salt</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a non-stick pan, add the asafoetida, green chillies, garlic, and tendli and sauté on a medium flame for 1 to 2 minutes.
+Add the prepared masala and mix well and sauté on a medium flame for 1 minutes.
+Keep aside to marinate for atleast 2 to 3 hours.
+Store in an air-tight container for 7 days in a refrigerator.</t>
+  </si>
+  <si>
+    <t>Energy 7 cal
+Protein 0.1 g
+Carbohydrates 0.2 g
+Fiber 0.1 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 1.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/garlic-and-tendli-pickle-39073r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41134</t>
+  </si>
+  <si>
+    <t>Almond Berry and Coconut Cake, For Fitness and Weight Loss</t>
+  </si>
+  <si>
+    <t>1 cup almonds (badam)
+1/4 tsp sea salt
+1/4 cup coconut oil
+3 tbsp honey
+1 tsp vanilla extract
+1/2 cup freshly grated coconut
+1/2 cup pumpkin seeds
+1/2 cup sunflower seeds (surajmukhi ke beej)
+1/4 cup almond (badam) slivers
+1/4 cup frozen blueberries
+coconut oil for greasing</t>
+  </si>
+  <si>
+    <t>Method
+Soak the almonds in enough hot water, cover with a lid and keep aside for 1 hour. Drain and peel them.
+Blend in a mixer along with the sea salt and blend well. Keep aside.
+Combine the coconut oil, honey, vanilla essence, 1 tbsp of water in a deep bowl and mix well using a spatula.
+Add all the other ingredients including the almond mixture and mix very well using a spatula.
+Grease a 175 mm. ( 7”) diameter aluminium tin with coconut oil, put the mixture into it and even it out using a spatula. Bake in a pre-heated oven at 200ºc (400ºf) for 20 minutes.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 388 cal
+Protein 8.6 g
+Carbohydrates 18.1 g
+Fiber 2.8 g
+Fat 32.3 g
+Cholesterol 0 mg
+Sodium 4.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-berry-and-coconut-cake-for-fitness-and-weight-loss-41134r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22330</t>
+  </si>
+  <si>
+    <t>Mushroom Brown Rice</t>
+  </si>
+  <si>
+    <t>For The Brown Rice
+1 1/2 cups brown rice
+3 tbsp chopped lemon grass (hare chai ki patti)
+1/4 cup thinly sliced spring onions
+1/4 cup thinly sliced capsicum
+1 tsp finely chopped green chillies
+1 tsp dry red chilli flakes (paprika)
+1 tsp olive oil
+1/4 tsp salt
+For The Sautéed Mushrooms
+4 cups mushrooms (khumbh) , chopped into quaters
+1/2 cup sliced spring onions whites
+2 tsp chopped garlic (lehsun)
+1/4 cup thinly sliced yellow capsicum
+1/4 cup thinly sliced green capsicum
+1/4 cup thinly sliced red capsicum
+1/2 tbsp lemon juice
+1 tsp cornflour dissolved in 1 tablespoon water
+2 tbsp chopped coriander (dhania)
+1 tsp oil
+1/4 tsp salt
+To Be Ground Into A Smooth Paste
+3 whole dry kashmiri red chillies , soaked
+2 tsp galangal (thai ginger)
+1 tsp sugar
+2 tbsp water
+For The Garnish
+2 tbsp finely chopped spring onions for the garnish</t>
+  </si>
+  <si>
+    <t>Method
+For the brown rice
+Wash and soak the brown rice for 2 to 3 hours. Drain and keep aside.
+Boil 4 cups of water in a large vessel, add the rice and lemon grass and cook over a medium flame till the rice is done. Drain and discard the water and lemon grass and keep aside.
+Heat the oil in a non-stick pan, add the spring onions and sauté till they turn translucent.
+Add the capsicum, green chillies and red chilli flakes and sauté for a while.
+Add the cooked brown rice and salt and mix gently. Remove from the flame and keep aside.
+For the sautéed mushrooms
+Heat the oil in a pan, add the spring onion whites and sauté till they turn translucent.
+Add the garlic and capsicum and fry for a minute.
+Add the ground paste, lemon juice and sauté for another minute.
+Mix well and finally add the mushrooms.
+Cook till they are soft and all the water has dried.
+Add the cornflour mixture and coriander and toss gently. Keep aside.
+How to proceed
+Just before serving heat the sautéed mushrooms in a large kadhai, add the rice to it and toss gently.
+Serve hot garnished with spring onion greens.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mushroom-brown-rice-22330r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42007</t>
+  </si>
+  <si>
+    <t>Grilled Sweet Potato, Grilled Shakarkand</t>
+  </si>
+  <si>
+    <t>For Grilled Sweet Potato
+3 big sweet potato (shakarkand)
+1 tsp olive oil for greasing
+To Be Mixed Into A Dressing
+2 tsp olive oil
+3/4 tsp chilli powder
+1 1/2 tsp honey , optional
+1 tbsp lemon juice
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+For grilled sweet potato
+To make grilled sweet potato
+Allow the steam to escape before opening the lid.
+Cool, peel and cut them into slightly thick slices. We need 16 slices.
+Combine the dressing in a big plate and coat the dressing gently on each slice.
+Heat 1 tsp of olive oil in a grill pan and arrange 8 sweet potato slices and cook on medium flame for 4 to 5 minutes or till it becomes light brown in colour.
+Repeat step 5 to make one more batch of the grilled sweet potato slices.
+Arrange the grilled sweet potato</t>
+  </si>
+  <si>
+    <t>Energy 5 cal
+Protein 0 g
+Carbohydrates 0.4 g
+Fiber 0.1 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 24.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/grilled-sweet-potato-grilled-shakarkand-42007r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42359</t>
+  </si>
+  <si>
+    <t>Baked Sweet Potato Fries, Indian Shakarkand Finger Chips</t>
+  </si>
+  <si>
+    <t>For Baked Sweet Potato Fries
+2 cups sweet potato fingers
+1 tbsp cornflour
+1/2 tsp sea salt (khada namak)
+1 1/2 tbsp olive oil
+1/2 tsp garlic (lehsun) powder
+1/4 tsp freshly ground black pepper (kalimirch)
+1/2 tsp chilli powder</t>
+  </si>
+  <si>
+    <t>Method
+For baked sweet potato fries
+To make baked sweet potato fries, combine the sweet potato fingers, cornflour and sea salt in a deep bowl and mix well.
+Add olive oil and toss well again.
+Place the sweet potatoes on a baking tray and ensure there is a gap between each fry. You will need to put the fries in 2 baking trays.
+Bake in a pre-heated oven at 210ºc (420ºf) for 25 minutes, while turning the fries once in between after 12 minutes.
+Add the garlic powder, pepper powder and chilli powder and toss well.
+Serve the baked sweet potato fries immediately.</t>
+  </si>
+  <si>
+    <t>Energy 154 cal
+Protein 0.9 g
+Carbohydrates 20.7 g
+Fiber 2.9 g
+Fat 7.6 g
+Cholesterol 0 mg
+Sodium 6.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baked-sweet-potato-fries-indian-shakarkand-finger-chips-42359r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42347</t>
+  </si>
+  <si>
+    <t>Strawberry Oats Pudding</t>
+  </si>
+  <si>
+    <t>For Strawberry Oats Pudding
+1/2 cup quick cooking rolled oats
+1/2 cup chopped strawberries
+1 cup almonds (badam) milk</t>
+  </si>
+  <si>
+    <t>Method
+For strawberry oats pudding
+To make strawberry oats pudding, combine the oats, strawberry and almond milk in a deep bowl.
+Mix well, cover it with a lid and refrigerate it for overnight.
+Serve the strawberry oats pudding chilled.</t>
+  </si>
+  <si>
+    <t>Energy 107 cal
+Protein 4 g
+Carbohydrates 16.9 g
+Fiber 3.5 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 36.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/strawberry-oats-pudding-42347r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42345</t>
+  </si>
+  <si>
+    <t>Strawberry Almond Milk and Oats Smoothie</t>
+  </si>
+  <si>
+    <t>1/2 cup frozen chopped strawberries
+1 cup chilled almond milk
+1/2 cup quick cooking rolled oats
+1 tsp maple syrup or honey</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a mixer and blend it till smooth.
+Pour the smoothie in 2 individual glasses.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 118 cal
+Protein 4 g
+Carbohydrates 19.5 g
+Fiber 3.5 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 41.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/strawberry-almond-milk-and-oats-smoothie-42345r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42013</t>
+  </si>
+  <si>
+    <t>Cabbage and Onion Roti, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>1/4 cup finely chopped cabbage
+1/4 cup finely chopped onions
+1 cup whole wheat flour (gehun ka atta)
+1 tsp finely chopped garlic (lehsun)
+1/2 tsp finely chopped green chillies
+1/4 tsp salt
+whole wheat flour (gehun ka atta) for rolling
+1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a deep bowl and knead into a semi-soft dough using enough water.
+Divide the dough into 6 equal portions.
+Roll a portion of the dough into a 150 mm. (6”) diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook the roti using ¼ tsp of oil on a medium flame till both the sides turn golden brown in colour.
+Repeat steps 3 and 4 to make 5 more rotis.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 90 cal
+Protein 2.8 g
+Carbohydrates 16.5 g
+Fiber 2.8 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 134.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-and-onion-roti-low-salt-recipe-42013r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22339</t>
+  </si>
+  <si>
+    <t>Hara Lehsun ka Achar</t>
+  </si>
+  <si>
+    <t>For Hara Lehsun ka Achar
+1 cup finely chopped green garlic (hara lehsun)
+1 tsp chilli powder
+1 tbsp coriander-cumin seeds (dhania-jeera) powder
+1/2 tsp turmeric powder (haldi)
+a pinch of asafoetida (hing)
+2 tsp oil
+1/4 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+For hara lehsun ka achar
+To make hara lehsun ka achar, heat the oil till it starts smoking. Remove from the flame and keep aside to cool.
+Mix all the ingredients together in a bowl and keep aside to marinate for atleast 2 to 3 hours.</t>
+  </si>
+  <si>
+    <t>Energy 7 cal
+Protein 0 g
+Carbohydrates 0 g
+Fiber 0 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 55.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/hara-lehsun-ka-achar-22339r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42030</t>
+  </si>
+  <si>
+    <t>Quick Tomato Rasam, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>1 1/2 cups roughly chopped tomatoes
+6 garlic (lehsun) cloves
+1/2 tsp cumin seeds (jeera)
+1 tsp mustard seeds ( rai / sarson)
+2 tsp coriander (dhania) seeds
+1/2 tsp black peppercorns (kalimirch)
+5 whole dry kashmiri red chillies , broken into pieces
+1 1/2 tbsp tamarind (imli) pulp
+10 curry leaves (kadi patta)
+1/4 tsp turmeric powder (haldi)
+1/2 tsp asafoetida (hing)
+1/8 tsp salt
+1 1/2 tsp oil</t>
+  </si>
+  <si>
+    <t>Method
+Combine tomatoes, garlic, cumin seeds, ½ mustard seeds, coriander seeds, peppercorns, 4 red chillies, tamarind pulp, and 5 curry leaves in a mixer and blend to a coarse mixture without using water.
+Transfer the mixture in a bowl, add the turmeric powder, asafoetida, salt and 3 cups water and mix well. Keep aside.
+Heat the oil in a deep non-stick pan, add the remaining ½ tsp mustard seeds, 1 red chilli and 5 curry leaves and sauté on a medium flame for 30 seconds.
+Add the tomato mixture , mix well and cook on a medium flame for 3 to 4 minutes. Do not stir it and do not boil.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 37 cal
+Protein 0.6 g
+Carbohydrates 4 g
+Fiber 1 g
+Fat 2.1 g
+Cholesterol 0 mg
+Sodium 105.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/quick-tomato-rasam-low-salt-recipe-42030r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42025</t>
+  </si>
+  <si>
+    <t>South Indian Mixed Vegetable Khichdi, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup brinjal (baingan / eggplant) cubes
+1/2 cup carrot cubes
+1/4 cup potato cubes
+1 cup chopped drumsticks
+1/2 cup brown rice , soaked for 30 minutes and drained
+1/2 cup toovar (arhar) dal , washed and drained
+1 1/2 tsp tamarind (imli) pulp
+1 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+5 curry leaves (kadi patta)
+1/4 tsp asafoetida (hing)
+1/8 tsp salt
+To Be Blended Into A Smooth Paste (using 2 Tbsp Of Water)
+1 tbsp roughly chopped garlic (lehsun)
+3 whole dry kashmiri red chillies , broken into pieces
+1/4 cup roughly chopped onions
+5 curry leaves (kadi patta)
+1/2 tsp turmeric powder (haldi)</t>
+  </si>
+  <si>
+    <t>32 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the brinjal, carrot, potato, drumstick and 1½ cups of water in a deep non-stick pan, cover it with a lid and cook on a medium flame for 5 to 6 minutes, while stirring occasionally. Keep aside.
+Combine the brown rice, toovar dal, salt and 2½ cups of water in a pressure cooker, mix well and pressure cook for 5 whistles.
+Allow the steam to escape before opening the lid.
+Add the cooked vegetables along with the water, prepared paste and tamarind, mix well and cook on a medium flame for 5 minutes, while stirring occasionally. Keep aside.
+Heat the oil in a small non-stick pan, add the mustard seeds, curry leaves, asafoetida and red chillies and sauté on a medium flame for 30 seconds.
+Pour it over the prepared rice and vegetable mixture, mix well and serve it immediately.</t>
+  </si>
+  <si>
+    <t>Energy 186 cal
+Protein 7.4 g
+Carbohydrates 33.7 g
+Fiber 5.7 g
+Fat 2.3 g
+Cholesterol 0 mg
+Sodium 107.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/south-indian-mixed-vegetable-khichdi-low-salt-recipe-42025r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42026</t>
+  </si>
+  <si>
+    <t>Pumpkin and Chawli Errissery, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>1 cup red pumpkin (bhopla/ kaddu) cubes
+1 1/2 cups soaked and cooked chawli (cow pea / lobhia)
+1/8 tsp salt
+1/2 tsp cumin seeds (jeera)
+2 whole dry kashmiri red chillies , broken into pieces
+1/4 cup roughly chopped onions
+1 tbsp roughly chopped garlic (lehsun)
+1/4 tsp turmeric powder (haldi)
+1 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+5 curry leaves (kadi patta)</t>
+  </si>
+  <si>
+    <t>14 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the cumin seeds, red chillies, onions and garlic in a mixer and blend it till smooth, without using any water. Keep aside.
+Combine the chawli, pumpkin, salt and 1 cup of water in a deep non-stick pan, mix well cover it with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
+Add the prepared masala and turmeric powder, mix well and cook on a medium flame for 2 to 3 minutes. Keep aside.
+Heat the oil in a small non-stick pan, add the mustard seeds and curry leaves and sauté on a medium flame for 30 seconds.
+Pour it over the prepared chawli and pumpkin vegetable and mix well.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 164 cal
+Protein 10.6 g
+Carbohydrates 25.5 g
+Fiber 6.8 g
+Fat 2.1 g
+Cholesterol 0 mg
+Sodium 142.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pumpkin-and-chawli-errissery-low-salt-recipe-42026r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5582</t>
+  </si>
+  <si>
+    <t>Bajra Kaddu ki Roti, Lehsun Bajra Bhopla Paratha</t>
+  </si>
+  <si>
+    <t>For Bajra Kaddu ki Roti
+1 tsp garlic (lehsun) paste
+1/2 cup bajra (black millet) flour
+1 cup grated red pumpkin (bhopla/ kaddu)
+1/2 cup whole wheat flour (gehun ka atta)
+1 tsp ginger-green chilli paste
+a pinch of turmeric powder (haldi)
+1/4 tsp asafoetida (hing)
+1 tsp lemon juice
+2 tbsp chopped coriander (dhania)
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>Method
+For bajra kaddu ki roti
+To make bajra kaddu ki roti, combine all the ingredients together, except the oil and make a semi-soft dough without using any water.
+Divide the dough into 6 equal portions and roll out each portion into 125 mm. (5") diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook each roti, using ¼ tsp of oil, till both sides are golden brown in colour.
+Serve the bajra kaddu ki roti immediately.</t>
+  </si>
+  <si>
+    <t>Energy 86 cal
+Protein 2.7 g
+Carbohydrates 14.7 g
+Fiber 2.5 g
+Fat 2 g
+Cholesterol 0 mg
+Sodium 5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-kaddu-ki-roti-lehsun-bajra-bhopla-paratha-5582r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42031</t>
+  </si>
+  <si>
+    <t>Brown Rice Vegetable Pulao, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup soaked and drained brown rice
+3/4 cup chopped french beans
+3/4 cup chopped carrot
+3/4 cup green peas
+1 tsp oil
+1 tsp ghee
+1/2 tsp cumin seeds (jeera)
+1 clove (laung / lavang)
+1 cardamom (elaichi)
+1 small stick cinnamon (dalchini)
+1 bayleaf (tejpatta)
+1/2 cup sliced onions
+1/2 tsp ginger (adrak) paste
+1/2 tsp garlic (lehsun) paste
+1 tsp green chilli paste
+1 tsp biryani masala
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>23 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil and ghee in a pressure cooker and add the cumin seeds, clove, cardamom, cinnamon and bayleaf and sauté on a medium flame for 30 seconds.
+Add the onions, ginger paste, garlic paste and green chilli paste and sauté on a medium flame for 1 minute.
+Add the brown rice, french beans, carrots, green peas, biryani masala and salt and sauté on a medium flame for 1 minute.
+Add 2 cups of hot water, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 182 cal
+Protein 4.7 g
+Carbohydrates 33.8 g
+Fiber 4.3 g
+Fat 3 g
+Cholesterol 0 mg
+Sodium 89.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/brown-rice-vegetable-pulao-low-salt-recipe-42031r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42022</t>
+  </si>
+  <si>
+    <t>Bengali Style Veg Chops, Healthy Low Salt Snack</t>
+  </si>
+  <si>
+    <t>1/4 cup finely chopped onions
+1/2 cup grated carrot
+1/4 cup grated beetroot
+1/4 cup boiled and mashed potatoes
+1/2 tsp fennel seeds (saunf)
+1/2 tsp cumin seeds (jeera)
+1/2 tsp coriander (dhania) seeds
+1 tsp oil
+1/2 tsp ginger (adrak) paste
+1 tsp finely chopped green chillies
+1/2 tsp chilli powder
+1/4 tsp dried mango powder (amchur)
+1/4 tsp salt
+1/4 tsp freshly ground black pepper (kalimirch)
+1 tsp oil brush (for greasing) and cooking</t>
+  </si>
+  <si>
+    <t>Method
+Combine the fennel seeds, cumin seeds and coriander seeds in a mortal pestle (khalbatta) till coarse. Keep aside.
+Heat the oil in a broad non-stick pan, add the ginger paste and green chillies and sauté on a medium flame for 30 seconds.
+Add the onions and sauté on a medium flame for 1 minute.
+Add the carrot and beetroot and sauté on a medium flame for 1 minute.
+Add the chilli powder, prepared coarsely crushed powder, dried mango powder, salt and 1 tbsp of water, mix well and cook on a medium flame for 30 seconds.
+Transfer the mixture into a big plate, cool slightly, add the potatoes and pepper powder and mix very well.
+Divide the mixture into 12 equal portions and roll each portion into an oblong shape.
+Heat a non-stick tava (griddle) and grease it using the remaining ½ tsp of oil.
+Place the chops on it and cook using ½ tsp of oil till they turn golden brown in colour from both the sides.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 13 cal
+Protein 0.1 g
+Carbohydrates 1.2 g
+Fiber 0.3 g
+Fat 0.8 g
+Cholesterol 0 mg
+Sodium 67 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bengali-style-veg-chops-healthy-low-salt-snack-42022r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42016</t>
+  </si>
+  <si>
+    <t>Bengali Style Brown Rice Khichdi, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup brown rice , soaked for 30 minutes and drained
+1/2 cup masoor dal (split red lentil) , washed and drained
+2 cloves (laung / lavang)
+1 cardamom (elaichi)
+1/2 small stick cinnamon (dalchini)
+2 tsp ghee
+1 bayleaf (tejpatta)
+1/2 cup finely chopped onions
+1 tsp ginger-garlic (adrak-lehsun) paste
+1/4 tsp turmeric powder (haldi)
+3/4 cup chopped carrot
+3/4 cup chopped french beans
+3/4 cup green peas
+2 tsp finely chopped green chillies
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>45 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the cloves, cardamom and cinnamon in a mortar pestle and ground into a coarse powder.
+Heat the ghee in a pressure cooker, add the bayleaf and the prepared coarse powder and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 2 minutes.
+Add the ginger-garlic paste, turmeric powder, brown rice, masoor dal, carrots, french beans and peas, mix well and sauté on a medium flame for 2 minutes.
+Add 2 cups of water, green chillies and salt, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 219 cal
+Protein 9.1 g
+Carbohydrates 37.9 g
+Fiber 6.7 g
+Fat 3.3 g
+Cholesterol 0 mg
+Sodium 111.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bengali-style-brown-rice-khichdi-low-salt-recipe-42016r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42019</t>
+  </si>
+  <si>
+    <t>Mixed Vegetable Frankie, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>For The Dough
+1/2 cup whole wheat flour (gehun ka atta)
+whole wheat flour (gehun ka atta) for rolling
+For The Stuffing
+1/2 cup grated carrot
+3/4 cup grated broccoli
+1/2 cup boiled and mashed green peas
+1/4 cup boiled and mashed potatoes
+2 tsp oil for cooking
+1/4 cup finely chopped onions
+1/2 tsp ginger (adrak) paste
+1/2 tsp garlic (lehsun) paste
+1/4 tsp turmeric (haldi) powder
+1/2 tsp coriander (dhania) powder
+1/2 tsp chilli powder
+1/4 tsp salt
+To Be Mixed Into Masala Water
+1 tsp dried mango powder (amchur)
+1 tsp chilli powder
+2 tsp water</t>
+  </si>
+  <si>
+    <t>Method
+For the dough
+Add the whole wheat flour in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into 4 equal portions.
+Roll out each portion into a 150 mm. (7”) diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook each roti, till golden brown spots appear on both the sides. Keep aside.
+For the stuffing
+Heat 1 tsp of oil in a broad non-stick pan, add the onions and sauté on a medium flame for 1 minute.
+Add the garlic paste, ginger paste, turmeric, coriander, chilli powder and 1 tbsp of water and sauté on a medium flame for 30 seconds.
+Add the carrot, broccoli, salt and 2 tbsp of water, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Add the green peas, potatoes and mix well and cook on a medium flame for 1 minute, while stirring it occasionally. Keep aside to cool slightly.
+Divide the mixture into 4 equal portions.
+Roll out each portion of the mixture into a 125 mm. (5”) cylindrical roll and flatten it between your palms.
+Heat 1 tsp of oil in a non-stick tava (griddle), and place all the rolls on the tava (griddle) and cook on a medium flame till they turn golden brown in colour from both the sides.
+How to proceed
+Place a roti on a clean, dry surface, put ½ tsp of the prepared masala water and spread it evenly.
+Place a prepared mixed vegetable roll on one side of the roti.
+Fold the two opposite ends of the roti over the roll.
+Start rolling the roti from one open end and over the 2 folded sides.
+Roll the entire roti tightly.
+Repeat steps 1 to 5 to make 3 more frankies.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 118 cal
+Protein 4.3 g
+Carbohydrates 19.5 g
+Fiber 4.8 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 205 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mixed-vegetable-frankie-low-salt-recipe-42019r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22321</t>
+  </si>
+  <si>
+    <t>Dahi Bhindi, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>1/4 cup curds (dahi)
+4 cups sliced ladies finger (bhindi)
+3 tsp oil
+1 tsp cumin seeds (jeera)
+1 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+2 whole dry kashmiri red chillies , broken into pieces
+1/2 cup chopped onions
+1 cup chopped tomatoes
+1/4 tsp chilli powder
+1/2 tsp turmeric powder (haldi)
+1/4 tsp salt</t>
+  </si>
+  <si>
+    <t>26 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the curds and ½ cup of water in a deep bowl, mix well using a whisk and keep aside.
+Heat 2 tsp of oil in a deep non-stick kadhai, add the ladies finger and sauté on a medium flame for 9 minutes.
+Transfer the bhindi into a plate and keep as
+Heat the remaining 1 tsp of oil in the same non-stick kadhai and add the cumin seeds, mustard seeds, urad dal, and red chillies.
+When the seeds crackle, add the onions and sauté on a medium flame for 5 minutes.
+Add the tomatoes, chilli powder, turmeric powder, mix well and cook on medium flame for 4 minutes, while stirring occasionally.
+Add the sautéed bhindi and salt, mix well and cook on a medium flame for 4 minutes, while stirring occasionally.
+Add the curd-water mixture, mix well and cook on a medium flame for 3 minute, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 110 cal
+Protein 3.6 g
+Carbohydrates 12.1 g
+Fiber 5.2 g
+Fat 4.9 g
+Cholesterol 2 mg
+Sodium 210.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/dahi-bhindi-low-salt-recipe-22321r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22329</t>
+  </si>
+  <si>
+    <t>Soya Pulao</t>
+  </si>
+  <si>
+    <t>For The Rice
+3 cups cooked rice (chawal)
+1/2 tsp oil
+1/2 tsp caraway seeds (shahjeera)
+2 peppercorns (kalimirch)
+25 mm (1") stick of cinnamon (dalchini)
+1/8 tsp salt
+For The Soya Gravy
+1/2 cup soya chunks (nuggets), soaked , drained and chopped
+1/2 cup boiled green peas
+1/2 tsp cumin seeds (jeera)
+1 tsp ginger-garlic (adrak-lehsun) paste
+1/2 cup chopped onions
+1 cup chopped tomatoes
+1/2 tsp turmeric powder (haldi)
+1 tsp chilli powder
+1 1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp garam masala
+1 tsp dried fenugreek leaves (kasuri methi)
+2 tsp oil
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+For the rice
+Heat the oil in a non-stick pan; add the caraway seeds, peppercorns and cinnamon.
+When the caraway seeds crackle add the cooked rice and salt, mix well and sauté on a medium flame for 1 to 2 minutes. Keep aside.
+For the soya gravy
+Heat the oil in a non-stick pan, add the cumin seeds, when they crackle add ginger-garlic paste and onions and sauté till they turn translucent.
+Add tomatoes, turmeric powder, chilli powder, coriander-cumin seed powder, garam masala and kasuri methi and cook till the tomatoes are mashed (approx. 5 to 7 minutes). Sprinkle little water to prevent the masala from burning.
+Add soya nuggets, peas, 1 cup water and salt and mix well. Simmer for 5 to 10 minutes. Keep aside.
+How to proceed
+Add the rice to the gravy and mix gently.
+Cook for 2 to 3 minutes in a kadhai and serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 512 cal
+Protein 13.9 g
+Carbohydrates 101.7 g
+Fiber 9.3 g
+Fat 5.5 g
+Cholesterol 0 mg
+Sodium 209.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/soya-pulao-22329r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41654</t>
+  </si>
+  <si>
+    <t>Mixed Vegetable Thoran, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup chopped onions
+1/2 cup finely chopped carrot
+1/2 cup finely chopped french beans
+1/4 cup green peas
+1 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp urad dal (split black lentils)
+2 whole dry kashmiri red chillies , broken into pieces
+2 tsp crushed garlic (lehsun)
+1/8 tsp salt
+1/2 tsp roasted and crushed cumin seeds (jeera)
+1/2 tsp chilli powder</t>
+  </si>
+  <si>
+    <t>11 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat oil in a deep non-stick pan and add mustard seeds.
+When the seeds crackle, add the urad dal, dry red chillies and garlic and sauté on medium flame for 1 minute.
+Add the onions, carrot, french beans, green peas and salt and sauté on medium flame for 2 minutes.
+Add 2 tbsp of water and mix well. Cover it with a lid and cook on medium flame for 6 minutes, while stirring occasionally.
+Add the cumin seeds and chilli powder, mix well and cook on medium flame for 1 minute, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 55 cal
+Protein 1.7 g
+Carbohydrates 8 g
+Fiber 2.6 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 141 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mixed-vegetable-thoran-low-salt-recipe-41654r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22322</t>
+  </si>
+  <si>
+    <t>Cabbage Nachni Koftas in Makhani Gravy, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>For The Cabbage Nachni Koftas
+1/2 cup finely chopped cabbage
+2 tbsp ragi (nachni / red millet) flour
+1/4 cup boiled and mashed potatoes
+1/2 tsp green chilli paste
+1/8 tsp salt
+For The Makhani Gravy
+3 cups chopped tomatoes
+1/2 cup chopped onions
+2 cloves (laung / lavang)
+1 small stick cinnamon (dalchini)
+1/2 cup chopped red pumpkin (bhopla / kaddu)
+1 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/4 tsp dried fenugreek leaves (kasuri methi)
+1 tsp chilli powder
+1/2 tsp garlic (lehsun) paste
+1/2 tsp sugar
+1/4 tsp salt</t>
+  </si>
+  <si>
+    <t>35 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the cabbage nachni koftas
+Combine all the ingredients along with 2 tbsp of water in a deep bowl and mix well.
+Divide the mixture into 12 equal portions and shape each portion into an even sized small round.
+Steam the koftas in a steamer for 10 minutes. Keep aside.
+For the makhani gravy
+Combine the tomatoes, onions, cloves, cinnamon, red pumpkin and ¾ cup of water in a deep non-stick pan, mix well and cover with a lid and cook on a medium flame for 10 to 12 minutes, while stirring occasionally.
+Allow the mixture to cool completely. Remove the cinnamon and cloves and discard them. Blend in a mixer till smooth. Keep aside.
+Heat the oil in a deep non-stick pan and add the cumin seeds.
+When the seeds crackle, add the tomato- onion mixture, dried fenugreek leaves, chilli powder, garlic paste, sugar, salt and ½ cup of water, mix well and cook on a medium flame for 3 minutes, while stirring occasionally. Keep aside.
+How to proceed
+Just before serving, reheat the makhani gravy, add the cabbage nachni koftas, mix gently and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 46 cal
+Protein 1.3 g
+Carbohydrates 7.7 g
+Fiber 2 g
+Fat 1.1 g
+Cholesterol 0 mg
+Sodium 206.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-nachni-koftas-in-makhani-gravy-low-salt-recipe-22322r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22319</t>
+  </si>
+  <si>
+    <t>Cabbage and Carrot Rice Bhakri</t>
+  </si>
+  <si>
+    <t>1 cup rice flour (chawal ka atta)
+1/4 cup finely chopped onions
+1/2 tbsp finely chopped coriander (dhania)
+1 tsp finely chopped green chillies
+1/2 tsp crushed cumin seeds (jeera)
+salt to taste
+1/2 cup chopped cabbage
+1/4 cup grated carrot
+rice flour (chawal ka atta) for rolling</t>
+  </si>
+  <si>
+    <t>Method
+Combine the rice flour, onions, coriander, green chillies, cumin seeds and salt in a deep bowl, mix well and keep aside.
+Heat 1 cup of water and little salt in a deep non-stick pan and allow the water to come to a boil.
+Add the cabbage and carrot, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the cabbage and carrot mixture to the rice flour mixture, mix well and let it cool slightly.
+Once slightly cooled, knead into a soft dough without using any water.
+Divide the dough into 11 equal portions.
+Roll out a portion of the dough with help of your hand into a 125 mm. (5”) diameter thick circle using a little rice flour for rolling.
+Heat a non-stick tava (griddle) and cook the bhakri on a medium flame till both the sides turn light brown in colour.
+Repeat steps 7 and 8 to make 10 more bhakris.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 49 cal
+Protein 0.9 g
+Carbohydrates 10.6 g
+Fiber 0.5 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 1.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-and-carrot-rice-bhakri-22319r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22306</t>
+  </si>
+  <si>
+    <t>Carrot Cabbage and Buckwheat Pancake, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>For Carrot Cabbage and Buckwheat Pancake
+1/4 cup grated carrot
+1/4 cup finely chopped cabbage
+1/2 cup buckwheat (kuttu or kutti no daro)
+1 tsp ginger (adrak) paste
+1 tsp green chilli paste
+1 tsp roasted and crushed cumin seeds (jeera)
+1 tsp dried mango powder (amchur)
+1/8 tsp salt
+1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>Method
+For carrot cabbage and buckwheat pancake
+Clean, wash and soak the buckwheat in ½ cup water in a deep bowl and keep aside for 20 minutes.
+Blend the soaked buckwheat in a mixer along with the water till smooth.
+Transfer the mixture into a deep bowl, add all the remaining ingredients and mix well.
+Heat a non-stick mini pancake pan and grease it with ½ tsp of oil.
+Pour 1 tbsp of the batter into each of the 7 pancake moulds and spread it in a circular motion to make a 63 mm. (2½") diameter round.
+Cook them till they turn golden brown in colour from both the sides.
+Repeat steps 5 and 6 to make 10 more mini pancakes in 2 more batches.
+Serve the carrot cabbage and buckwheat pancake immediately.</t>
+  </si>
+  <si>
+    <t>Energy 19 cal
+Protein 0.5 g
+Carbohydrates 2.9 g
+Fiber 0.4 g
+Fat 0.6 g
+Cholesterol 0 mg
+Sodium 24.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-cabbage-and-buckwheat-pancake-low-salt-recipe-22306r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38448</t>
+  </si>
+  <si>
+    <t>Chawli and Sprouted Moong Salad, Healthy Chawli Vegetable Salad</t>
+  </si>
+  <si>
+    <t>For Chawli and Sprouted Moong Salad
+1 cup soaked and boiled chawli (cow pea / lobhia)
+1/4 cup boiled sprouted moong (whole green gram)
+1/4 cup chopped tomatoes
+1/4 cup chopped spring onions whites and greens
+1/4 cup chopped cabbage
+1 tsp lemon juice
+1/4 tsp chilli powder
+1/4 tsp cumin seeds (jeera) powder
+1/4 tsp dried mango powder (amchur)
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+For chawli and sprouted moong salad
+To make chawli and sprouted moong salad, combine all the ingredients in a deep bowl and mix well.
+Serve the chawli and sprouted moong salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 112 cal
+Protein 8.1 g
+Carbohydrates 18.9 g
+Fiber 5.7 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 140.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chawli-and-sprouted-moong-salad-healthy-chawli-vegetable-salad-38448r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33653</t>
+  </si>
+  <si>
+    <t>Italiano Salad ( Healthy Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>To Be Mixed Into A Dressing
+2 tbsp lemon juice
+1 tsp olive oil
+1/4 tsp dried oregano
+1 tsp finely chopped basil leaves
+1 tsp crushed garlic (lehsun)
+1/4 tsp dry red chilli flakes (paprika)
+2 tbsp chopped pine nuts/ walnuts (akhrot)
+salt to taste
+Other Ingredients
+1/2 cup boiled pasta (of your choice)
+1/2 cup bean sprouts
+2 medium tomatoes , deseeded and cubed
+2 medium capsicum , cubed
+3 spring onions (with the greens) , chopped
+For The Garnish
+5 to 6 stuffed olives , cut into halves</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the salad ingredients together in a bowl and mix well. Refrigerate to chill.
+Just before serving, add the dressing and toss well.
+Serve chilled garnished with the olives.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/italiano-salad--healthy-diabetic-recipe--33653r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22333</t>
+  </si>
+  <si>
+    <t>Sweet Potato Halwa, Shakarkand Halwa</t>
+  </si>
+  <si>
+    <t>1 1/4 cups boiled and mashed sweet potatoes
+few saffron (kesar) strands
+1 tbsp warm milk
+1/2 cup milk
+2 tsp sugar
+1/4 tsp cardamom (elaichi) powder
+1 tbsp chopped mixed nuts
+1 tsp ghee</t>
+  </si>
+  <si>
+    <t>13 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the warm milk and saffron in a small bowl, mix well and keep aside.
+Heat the ghee in a deep non-stick pan and add the mashed sweet potatoes and sauté on a medium flame for 2 minutes.
+Add the milk, sugar, cardamom powder and ½ cup water, mix well cook on medium flame for 6 to 7 minutes or till the mixture starts to leave the sides of the pan, while stirring continuously.
+Add the saffron-milk mixture and nuts, mix well and cook on medium flame for 3 to 4 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 170 cal
+Protein 3.5 g
+Carbohydrates 24.5 g
+Fiber 1.5 g
+Fat 5.6 g
+Cholesterol 6.1 mg
+Sodium 16.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sweet-potato-halwa-shakarkand-halwa-22333r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41064</t>
+  </si>
+  <si>
+    <t>Coconut Chia Pudding with Mixed Fruits</t>
+  </si>
+  <si>
+    <t>For Coconut Chia Seeds Pudding
+1/4 cup chia seeds
+1 cup coconut milk (nariyal ka doodh)
+1 tbsp honey
+1/4 cup kiwi slices
+1/4 cup sliced banana
+2 tbsp pomegranate (anar)
+1 tbsp pumpkin seeds
+1 tsp flax seeds
+1/4 cup chopped papaya
+almond (badam) flakes for sprinkling</t>
+  </si>
+  <si>
+    <t>Method
+For coconut chia seeds pudding
+To make coconut chia seeds pudding, combine coconut milk, chia seeds, honey and mix well.
+Refrigerate it for 4 hours or overnight until it becomes slightly thick like a pudding.
+Top it up with kiwi, banana, pomegranate, pumpkin seeds, flax seeds, papaya and sprinkle some almond flakes over it.
+Serve chia seeds pudding immediately.</t>
+  </si>
+  <si>
+    <t>Energy 164 cal
+Protein 2.8 g
+Carbohydrates 11.2 g
+Fiber 4.5 g
+Fat 11.4 g
+Cholesterol 0 mg
+Sodium 3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/coconut-chia-pudding-with-mixed-fruits-41064r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5701</t>
+  </si>
+  <si>
+    <t>Sprouted Masala Matki</t>
+  </si>
+  <si>
+    <t>For Sprouted Masala Matki
+2 cups boiled sprouted matki (moath beans)
+1 cup fresh tomato pulp
+salt to taste
+2 tsp lemon juice
+For The Paste
+2 tsp oil
+5 to 6 whole dry kashmiri red chillies , broken into pieces
+1/2 cup sliced onions
+1 tbsp poppy seeds (khus-khus) , optional
+3 to 4 black peppercorns (kalimirch)
+3 small sticks cinnamon (dalchini)
+3 cloves (laung / lavang)
+1 tsp coriander (dhania) seeds
+2 garlic (lehsun) cloves
+For The Topping
+2 tbsp chopped tomatoes
+2 tbsp chopped onions
+2 tbsp chopped capsicum or cucumber</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the paste
+Heat the oil in a broad non-stick pan, add all the ingredients and sauté on a medium flame for 2 to 3 minutes.
+Allow the mixture to cool and blend in a mixer to a smooth paste using little water. Keep aside.
+How to proceed
+Heat a broad non-stick pan, add the prepared paste and fresh tomato pulp, mix well and cook on a medium flame for 1 to 2 minutes.
+Add the sprouted matki, salt and lemon juice, mix well and cook on a medium flame for another 1 minute or till the mixture dries up a little.
+Serve hot topped with tomatoes, onions and capsicum or cucumber.</t>
+  </si>
+  <si>
+    <t>Energy 164 cal
+Protein 9.3 g
+Carbohydrates 24.8 g
+Fiber 3.1 g
+Fat 3.1 g
+Cholesterol 0 mg
+Sodium 19.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouted-masala-matki-5701r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40439</t>
+  </si>
+  <si>
+    <t>Mixed Sprouts and Bajra Roti</t>
+  </si>
+  <si>
+    <t>For Mixed Sprouts and Bajra Roti
+1/2 cup boiled and mashed mixed sprouts ((matki , moong , chana , etc) , refer handy tip
+1 cup bajra (black millet) flour
+2 tbsp finely chopped coriander (dhania)
+1 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+1 tsp garlic (lehsun) paste
+salt to taste
+bajra (black millet) flour for rolling
+1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>Method
+For mixed sprouts and bajra roti
+To make mixed sprouts and bajra roti, combine all the ingredients in a deep bowl and knead into a soft dough using enough warm water.
+Divide the dough into 6 equal portions.
+Roll out a portion of the dough into a 125 mm. (5") diameter circle using a little bajra flour for rolling.
+Heat a non-stick tava (griddle) and cook the roti, on a medium flame, using ¼ tsp of oil, till golden brown spots appear on both the sides.
+Repeat steps 3 and 4 to make 5 more rotis.
+Serve the mixed sprouts and bajra roti immediately.
+Handy tip:
+The mixed sprouts used in this recipe should be mashed very well, else rolling these rotis becomes difficult.</t>
+  </si>
+  <si>
+    <t>Energy 84 cal
+Protein 2.8 g
+Carbohydrates 13.2 g
+Fiber 2.5 g
+Fat 2.2 g
+Cholesterol 0 mg
+Sodium 3.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mixed-sprouts-and-bajra-roti-40439r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6424</t>
+  </si>
+  <si>
+    <t>Masala Cauliflower with Green Peas</t>
+  </si>
+  <si>
+    <t>To Be Ground Into A Paste (using 2 Tbsp Water)
+2 tsp freshly grated coconut
+2 green chillies
+25 mm ginger (adrak)
+2 to 3 garlic (lehsun) cloves
+Other Ingredients For Masala Cauliflower With Green Peas
+2 cups cauliflower florets
+1 1/2 cups green peas
+3/4 cup chopped onions
+1/2 cup chopped coriander (dhania)
+1/2 tsp turmeric powder (haldi)
+2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp chilli powder
+2 tsp oil
+salt to taste</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>Method
+For masala cauliflower with green peas
+To mae masala cauliflower with green peas, combine the onions, coriander, turmeric powder, coriander-cumin seeds powder, chilli powder, prepared paste, oil and salt in a deep bowl and mix well to make a marinade.
+Add the cauliflower and green peas to this prepared marinade, mix well and keep aside to marinate for 15 minutes.
+Transfer it into a deep non-stick kadhai, add 1¼ cups of water, cover and cook on a medium flame for 10 to 12 minutes or until the vegetables are tender, while stirring occasionally.
+Serve the masala cauliflower with green peas hot.</t>
+  </si>
+  <si>
+    <t>Energy 107 cal
+Protein 5.3 g
+Carbohydrates 13.1 g
+Fiber 6.5 g
+Fat 3.8 g
+Cholesterol 0 mg
+Sodium 26.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masala-cauliflower-with-green-peas-6424r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40968</t>
+  </si>
+  <si>
+    <t>Water Chestnuts and Purple Cabbage Stir Fry</t>
+  </si>
+  <si>
+    <t>For Water Chestnuts and Purple Cabbage Stir Fry
+2 cups peeled fresh water chestnut (singhada)
+1 cup shredded red cabbage
+2 tsp olive oil
+1 tbsp finely chopped garlic (lehsun)
+salt and to taste
+To Be Mixed Into A Dressing
+1 1/2 tbsp honey
+1 1/2 tsp dry red chilli flakes (paprika)
+1 tsp lemon juice
+For The Garnish
+2 tbsp roasted peanuts</t>
+  </si>
+  <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>Method
+Boil enough water in a deep non-stick pan, add the water chestnuts, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Drain well and keep aside.
+Heat the olive oil in a broad non-stick pan, add the garlic and sauté on a medium flame for 30 seconds.
+Add the water chestnuts, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Add the cabbage, prepared dressing, salt and pepper, mix gently and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve immediately garnished with peanuts.</t>
+  </si>
+  <si>
+    <t>Energy 137 cal
+Protein 3.9 g
+Carbohydrates 24.6 g
+Fiber 2.9 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 4.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/water-chestnuts-and-purple-cabbage-stir-fry-40968r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22323</t>
+  </si>
+  <si>
+    <t>Mili Jhuli Subzi ( High Blood Pressure Recipe)</t>
+  </si>
+  <si>
+    <t>1 1/2 cups diagonally cut and boiled mixed vegetables (french beans , carrots , green peas , baby corn)
+3/4 cup finely chopped tomatoes
+1/4 tsp salt
+1 tsp oil
+To Be Ground Into A Smooth Paste (using 2 Tbsp Of Water)
+1/2 cup roughly chopped onions
+1 tbsp poppy seeds (khus-khus)
+1 tbsp soaked and drained beaten rice (poha)
+4 peppercorns (kalimirch)
+2 cinnamon (dalchini) sticks
+2 cloves (laung / lavang)
+1 whole dry kashmiri red chilli , broken into pieces
+1 tbsp coriander (dhania) seeds
+1 tsp cumin seeds (jeera)
+1 tbsp roughly chopped garlic (lehsun)
+1 small piece ginger (adrak)</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a non- stick kadhai, add the prepared paste and sauté on a medium flame for 5 minutes.
+Add the tomatoes and ¼ cup of water, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Add the vegetables, salt and ½ cup of water, mix gently and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 103 cal
+Protein 4.7 g
+Carbohydrates 16.5 g
+Fiber 6.7 g
+Fat 2 g
+Cholesterol 0 mg
+Sodium 294.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mili-jhuli-subzi--high-blood-pressure-recipe-22323r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22242</t>
+  </si>
+  <si>
+    <t>Fruit Salad in Honey Lime Dressing</t>
+  </si>
+  <si>
+    <t>For Fruit Salad In Honey Lime Dressing
+1 1/2 cups watermelon (tarbuj) cubes
+2 cups pineapple cubes
+1/4 cup grated carrot
+1/2 cup cucumber cubes , optional
+To Be Mixed Into A Honey Lime Dressing
+1/2 tsp ginger (adrak) paste
+2 tsp lemon juice
+1 tsp honey
+1 tbsp low fat curds (dahi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For fruit salad in honey lime dressing
+To make fruit salad in honey lime dressing, combine all the ingredients in a bowl (except the dressing) and chill in the fridge till you want to serve.
+Add the honey lime dressing and mix well.
+Garnish with coarsely crushed and roasted peanuts.
+Serve fruit salad in honey lime dressing immediately.</t>
+  </si>
+  <si>
+    <t>Energy 48 cal
+Protein 0.7 g
+Carbohydrates 10.6 g
+Fiber 2.8 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 43.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fruit-salad-in-honey-lime-dressing-22242r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1330</t>
+  </si>
+  <si>
+    <t>Sweet Lime and Kiwi Juice</t>
+  </si>
+  <si>
+    <t>1 1/2 cups sweet lime (mosambi) segments , deseeded
+3/4 cup kiwi cubes
+salt and to taste
+1 tsp garden cress seeds (halim)
+For Serving
+8 ice-cubes</t>
+  </si>
+  <si>
+    <t>Method
+Combine the garden cress seeds and 1 tbsp of water in a small bowl, mix well and cover and keep aside to soak for 20 minutes.
+Divide the soaked garden cress seeds into 3 equal portions and keep aside.
+Combine the sweet lime, kiwi, salt, pepper and 1 cup of chilled water in a mixer and blend till smooth and frothy.
+Pour equal quantities of the juice into 3 individual glasses and top with 1 portion of soaked garden cress seeds in each glass.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 67 cal
+Protein 1.5 g
+Carbohydrates 14.1 g
+Fiber 3.6 g
+Fat 0.8 g
+Cholesterol 0 mg
+Sodium 1.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sweet--lime-and-kiwi-juice-1330r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5558</t>
+  </si>
+  <si>
+    <t>Three Bean Salad, Healthy Indian Bean Salad</t>
+  </si>
+  <si>
+    <t>For Three Bean Salad
+1 cup soaked and boiled rajma (kidney beans)
+1 cup soaked and boiled kabuli chana (white chick peas)
+1 cup soaked and boiled rangoon na vaal (broad field beans)
+1/2 cup sliced spring onions
+3/4 cup tomato cubes
+To Be Mixed Together Into A Lemony Basil Dressing
+2 tbsp lemon juice
+1 tbsp chopped basil
+1 tsp olive oil
+1 tsp grated garlic (lehsun)
+1/2 tsp dried mixed herbs
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For three bean salad
+To make three bean salad, combine all the ingredients along with the lemony basil dressing in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 142 cal
+Protein 6.8 g
+Carbohydrates 22.8 g
+Fiber 7.3 g
+Fat 2.7 g
+Cholesterol 0 mg
+Sodium 8.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/three-bean-salad-healthy-indian-bean-salad-5558r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22328</t>
+  </si>
+  <si>
+    <t>White Gravy Biryani</t>
+  </si>
+  <si>
+    <t>For The Rice
+2 1/4 cups cooked brown rice (chawal)
+1 tsp oil
+1 tsp caraway seeds (shahjeera)
+1/4 tsp salt
+For The Vegetables
+1/2 cup chopped onions
+1/2 cup cauliflower florets
+5 garlic (lehsun) cloves
+1” piece of ginger (adrak)
+3 cardamoms
+2 cloves (laung / lavang)
+1 bayleaf (tejpatta)
+1 tsp finely chopped green chillies
+1 1/2 cups boiled mixed vegetables (french beans , carrots and green peas)
+1/4 cup low-fat curds (dahi)
+1 tsp oil
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+How to proceed
+Heat the oil in a broad non-stick pan, add the caraway seeds and sauté on a medium flame for a few seconds.
+Add the brown rice and salt and mix well. Keep aside.
+For the white gravy
+Combine the onions, cauliflower and ¾ cup of water in a deep non-stick pan, mix well and cook on a medium flame for 6 to 8 minutes, while stirring occasionally. Keep aside to cool completely.
+Once cooled, combine the onion-cauliflower mixture, garlic and ginger and blend in a mixer to a smooth paste. Keep aside.
+Heat the oil in a broad non-stick pan and add the cardamoms, cloves and bay leaf and sauté on a medium flame for a few seconds.
+Add the prepared onion–cauliflower paste and sauté on a medium flame for 1 minute.
+Add the green chillies, mixed vegetables, 3 tbsp water, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Remove from the flame, add the curds and salt, mix well and keep aside.
+How to proceed
+In a broad non-stick pan, spread a layer of rice and top with a layer of the white gravy.
+Repeat the layers till all the rice and white gravy are used.
+Bake in a pre-heated oven at 200°c (400°f) for 5 to 7 minutes.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 135 cal
+Protein 4.2 g
+Carbohydrates 23.9 g
+Fiber 4 g
+Fat 2.4 g
+Cholesterol 0 mg
+Sodium 217.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/white-gravy-biryani-22328r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3606</t>
+  </si>
+  <si>
+    <t>Sweet Potato Puranpoli</t>
+  </si>
+  <si>
+    <t>For The Dough
+1/3 cup whole wheat flour (gehun ka atta)
+4 tsp low-fat milk
+To Be Mixed Into A Filling
+1/2 cup boiled and grated sweet potato (shakarkand)
+4 tsp powdered sugar
+1/8 tsp nutmeg (jaiphal) powder
+1/8 tsp cardamom (elaichi) powder
+a pinch of saffron (kesar) strands
+Other Ingredients For Sweet Potato Puranpoli
+whole wheat flour (gehun ka atta) for rolling
+1 tsp oil/ ghee for cooking</t>
+  </si>
+  <si>
+    <t>Method
+For sweet potato puranpoli
+To make sweet potato puranpoli, combine the wheat flour and milk along with little water and knead into a soft dough.
+Divide the dough into 4 equal portions and keep aside.
+Roll out one portion of the dough into a circle of 75 mm. (3") diameter.
+Place one portion of the filling mixture in the centre of the circle.
+Bring together all the sides in the centre and seal tightly.
+Roll out again into a circle of 125 mm. (5") diameter using whole wheat flour for rolling.
+Heat a non-stick tava (griddle), grease with ghee and cook on a medium flame using little oil till it turns golden brown in colour from both the sides.
+Repeat with the remaining dough and filling to make 3 more puranpolis.
+Serve the sweet potato puranpoli hot.</t>
+  </si>
+  <si>
+    <t>Energy 76 cal
+Protein 1.6 g
+Carbohydrates 14.4 g
+Fiber 1.8 g
+Fat 1.5 g
+Cholesterol 0 mg
+Sodium 5.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sweet-potato-puranpoli-3606r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22335</t>
+  </si>
+  <si>
+    <t>Eggless Date Pancake, Healthy Indian Pancake</t>
+  </si>
+  <si>
+    <t>For The Pancakes
+3/4 cup whole wheat flour (gehun ka atta)
+a pinch of salt
+1/4 tsp fruit salt (optional )
+1 tsp low-fat melted butter for greasing and cooking
+To Be Mixed Into A Stuffing
+1/2 cup chopped dates (khajur)
+2 tbsp chopped raisins (kismis)
+2 tbsp chopped walnuts (akhrot)
+1/4 tsp cinnamon (dalchini) powder
+a pinch of nutmeg (jaiphal) powder</t>
+  </si>
+  <si>
+    <t>Method
+For the pancakes
+Combine the whole wheat flour, salt and 1 1/2 cups of water in a deep bowl and whisk well. Add fruit salt ( optional) and mix gently. Keep aside.
+Heat a non-stick tava (griddle) and grease it with a little melted butter.
+Pour ¼ cup of the batter over it and cook using very little melted butter till it turns light brown in colour.
+Turn the pancake around and cook on the other side as well.
+Repeat steps 2 to 4 to make 5 more pancakes. Keep aside.
+How to proceed
+To make eggless date pancake, divide the stuffing into 6 equal portions. Keep aside.
+Place a pancake on a clean dry surface, put a portion of the stuffing on one side of the pancake and fold to make a semi-circle.
+Repeat step 2 to stuff 5 more pancakes.
+Serve the eggless date pancake immediately.</t>
+  </si>
+  <si>
+    <t>Energy 105 cal
+Protein 2.6 g
+Carbohydrates 14.8 g
+Fiber 1.1 g
+Fat 3.9 g
+Cholesterol 1.3 mg
+Sodium 6.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/eggless-date-pancake-healthy-indian-pancake-22335r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3600</t>
+  </si>
+  <si>
+    <t>Minty Bean Salad</t>
+  </si>
+  <si>
+    <t>2 tbsp finely chopped mint leaves (phudina)
+1 1/2 cups soaked and cooked chawli , refer handy tip
+1/2 cup chopped cucumber
+1/2 cup finely chopped onions
+1/2 cup finely chopped tomatoes
+2 tbsp finely chopped coriander (dhania)
+1/2 tsp finely chopped green chillies
+1/4 tsp black salt (sanchal)
+1/2 tbsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a bowl and toss well.
+Serve immediately or refrigerate for 1 hour and serve chilled.
+Handy tip:
+½ cup of raw chawli, when soaked and boiled yields 1½ cups cooked chawli. Ensure not to overcook the chawli for this recipe.</t>
+  </si>
+  <si>
+    <t>Energy 115 cal
+Protein 7.8 g
+Carbohydrates 19.8 g
+Fiber 5.9 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 12.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/minty-bean-salad-3600r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6237</t>
+  </si>
+  <si>
+    <t>Tangy Twist, Orange Pomegranate and Black Grape Juice</t>
+  </si>
+  <si>
+    <t>Hopper Method
+16 big orange segments (deseeded)
+1/2 cup pomegranate (anar)
+1/2 cup black grapes
+crushed ice for serving
+Juicer Method
+16 big orange segments (deseeded)
+1/2 cup pomegranate (anar)
+1/2 cup black grapes
+crushed ice for serving</t>
+  </si>
+  <si>
+    <t>Method
+Hopper method
+Add the orange segments, pomegranate and black grapes a few at a time in the hopper.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve immediately.
+Juicer method
+Combine the orange segments, pomegranate and black grapes along with 2 tbsp of water and blend in a juicer till smooth.
+Strain the juice using a strainer.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 139 cal
+Protein 2.5 g
+Carbohydrates 31.4 g
+Fiber 4.1 g
+Fat 0.5 g
+Cholesterol 0 mg
+Sodium 9.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tangy-twist-orange-pomegranate-and-black-grape-juice-6237r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22332</t>
+  </si>
+  <si>
+    <t>Tofu, Broccoli and Red Cabbage Stir Fry</t>
+  </si>
+  <si>
+    <t>3/4 cup coloured capsicum (green , yellow , red) cubes
+3/4 cup bean sprouts
+3/4 cup blanched broccoli florets
+1/4 cup shredded red cabbage
+1/2 cup tofu (bean curd/soya paneer) , cut into 1" cubes
+4 whole dry red chillies , broken and dry roasted
+1 1/2 tbsp chopped garlic (lehsun)
+1 tbsp cornflour dissolved with 1/2 cup water
+2 tsp oil
+1/4 tsp salt
+For Serving
+3 cups boiled rice noodles</t>
+  </si>
+  <si>
+    <t>Method
+Pound the garlic and chilli together in a mortar-pestle. Keep aside.
+Heat the oil in a pan, add the pounded mixture and sauté for a minute.
+Add the bean sprouts, broccoli and cabbage and stir-fry on high flame till they are crisp.
+Stir in the cornflour mixture and cook till it thickens.
+Add the tofu and salt and mix well
+Serve hot on a bed of rice noodles.</t>
+  </si>
+  <si>
+    <t>Energy 52 cal
+Protein 1.6 g
+Carbohydrates 5.4 g
+Fiber 1.5 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 197.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tofu-broccoli-and-red-cabbage-stir-fry-22332r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7438</t>
+  </si>
+  <si>
+    <t>Healthy Lentil Soup, Yellow Moong Dal Soup Recipe</t>
+  </si>
+  <si>
+    <t>For The Moong Dal Purée
+3 tbsp yellow moong dal (split yellow gram)
+1/2 cup chopped onions
+1/4 cup carrot cubes
+Other Ingredients
+1/2 tbsp cornflour
+2 tsp oil
+1/2 cup chopped onions
+1/2 tsp chopped garlic (lehsun)
+2 tbsp chopped celery (ajmoda)
+2 tbsp cooked barley (jau)
+salt and to taste</t>
+  </si>
+  <si>
+    <t>19 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the moong dal purée
+Wash and soak the moong dal in enough for 2 to 3 hours. Drain well.
+Combine the moong dal, onions, carrots and 2 cups of water in a pressure cooker and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid.
+Allow it to cool and blend in a mixer to a smooth puree. Keep aside.
+How to proceed
+Combine the cornflour with ¼ cup of water in a bowl, mix well and keep aside.
+Heat the oil in deep non-stick pan, add the onions, garlic and celery and sauté on a medium flame for 1 minute.
+Add the moong dal purée, mix well and cook on a slow flame for 3 to 4 minutes, while stirring occasionally.
+Add the barley, salt, pepper and cornflour-water mixture, mix well and cook on a slow flame for 3 to 4 minutes, while stirring occasionally.
+Serve immediately.
+Handy tips:
+Add salt while pressure cooking the barley.
+Pearl barley is easily available at local chemists. Wash it thoroughly and cook in boiling water like rice.
+The water in which barley is cooked is nutritious and rich in antioxidants that help to fight diseases.
+It can be used for kneading dough or added to buttermilk or soups.</t>
+  </si>
+  <si>
+    <t>Energy 106 cal
+Protein 3.9 g
+Carbohydrates 16.2 g
+Fiber 1.7 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 5.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-lentil-soup-yellow-moong-dal-soup-recipe-7438r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5581</t>
+  </si>
+  <si>
+    <t>Pyaz ki Roti, Healthy Pyaz ka Paratha</t>
+  </si>
+  <si>
+    <t>For Pyaz ki Roti
+1 cup whole wheat flour (gehun ka atta)
+2 tbsp powdered flaxseeds (alsi)
+2 tbsp pomegranate seeds (anardana) , roasted and ground
+1/2 cup finely chopped onions
+1 tsp green chillies , finely chopped
+1 tsp oil
+salt to taste
+Other Ingredients For Pyaz ki Roti
+1 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>Method
+For pyaz ki roti
+To make pyaz ki roti, mix together all the ingredients and knead into a soft dough adding enough water.
+Divide the dough into 4 equal portions and roll each portion into a circle of 125 mm. (5") diameter.
+Heat a non-stick tava (griddle) and cook a roti, using ¼ tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat to make 3 more rotis.
+Serve the pyaz ki roti hot with a subzi of your choice.</t>
+  </si>
+  <si>
+    <t>Energy 168 cal
+Protein 5 g
+Carbohydrates 26.9 g
+Fiber 5.4 g
+Fat 5.2 g
+Cholesterol 0 mg
+Sodium 8.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pyaz-ki-roti-healthy-pyaz-ka-paratha-5581r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42518</t>
+  </si>
+  <si>
+    <t>Black Bean Hummus</t>
+  </si>
+  <si>
+    <t>1 cup soaked and cooked black beans
+1/4 cup black sesame seeds (kala til)
+2 tbsp olive oil
+1/2 tbsp roughly chopped garlic (lehsun)
+1 small roasted green chilli , broken into pieces
+1/2 tsp cumin seeds (jeera) powder
+2 tsp lemon juice
+salt to taste
+For The Topping
+1 1/2 tbsp olive oil
+1 tbsp chopped black olives
+1/2 tsp sesame seeds (til)
+For Serving
+lavash</t>
+  </si>
+  <si>
+    <t>Method
+Heat the black sesame seeds in a small non-stick pan and dry roast on a medium flame for 2 minutes.
+Transfer into a plate and cool completely.
+Once cooled, blend in a mixer along with 1 tbsp olive oil till smooth.
+Add all the other ingredients and approx. ¼ cup of water and blend till smooth.
+Transfer into an air-tight container and top it with the olive oil, black olives and finally white sesame seeds.
+Serve chilled with lavash.</t>
+  </si>
+  <si>
+    <t>Energy 66 cal
+Protein 1.7 g
+Carbohydrates 4 g
+Fiber 1.6 g
+Fat 4.9 g
+Cholesterol 0 mg
+Sodium 0.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/black-bean-hummus-42518r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38674</t>
+  </si>
+  <si>
+    <t>Soya Curry with Yogurt</t>
+  </si>
+  <si>
+    <t>200 gms soaked soya chunks
+200 gms of fresh curds (dahi)
+2 chopped onions
+1 chopped green chillies
+1 tsp turmeric powder (haldi)
+1 tsp chilli powder
+1 tsp coriander (dhania) powder
+1 tsp cumin seeds (jeera) powder
+1/2 tsp asafoetida (hing)
+1 tsp garam masala
+1 tsp ginger-garlic (adrak-lehsun) paste
+1 tsp cumin seeds (jeera)
+1 tsp mustard seeds ( rai / sarson)
+2-3 whole dry kashmiri red chilli
+3 tsp oil
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Heat oil in a non stick pan or wok.
+Add the cumin seeds and the mustard seeds and let it crackle.
+Add 1/2 tsp of hing, dry red chilli and saute in the oil for 1 minute.
+Add the onions and saute till the onions are light golden brown.
+Add the tomatoes and the chilli powder and saute for 2 minutes.
+Add the ginger-garlic paste and saute well till the rawness of the ginger garlic paste goes away.
+Add the turmeric powder, chilli powder, cumin seeds powder, coriander powder and garam masala and saute for 4 to 5 minutes.
+Add the fresh curd and stir nicely till the masala is mixed well.
+Add the soya chunks and mix well.
+Add salt and let it cook on a low flame for about 5-6 minutes.
+Serve with hot rice or rotis.</t>
+  </si>
+  <si>
+    <t>Energy 323 cal
+Protein 32.7 g
+Carbohydrates 26.3 g
+Fiber 7.7 g
+Fat 8.6 g
+Cholesterol 9.1 mg
+Sodium 12.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/soya-curry-with-yogurt-38674r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38680</t>
+  </si>
+  <si>
+    <t>Alu Methi</t>
+  </si>
+  <si>
+    <t>4 boiled and chopped potatoes
+2 cups chopped fenugreek (methi) leaves
+2 chopped tomatoes
+2 to whole dry kashmiri red chillies
+1 slit green chilli
+1/2 tsp cumin seeds (jeera)
+1/2 tsp asafoetida (hing)
+1/4 tsp turmeric powder (haldi)
+1 tsp coriander (dhania) powder
+1/4 tsp chilli powder
+2 tsp oil
+1 tsp salt or to taste</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a non stick pan or wok, add the cumin seeds and let it crackle.
+Add 1/2 tsp of hing, dry red chillies and saute for 1 minute.
+Add the potatoes and saute for 5 to 6 minutes till the potatoes are fried.
+Add the tomatoes and the green chillies and saute for 2 minutes.
+Add the ginger-garlic paste and mix well till the rawness of the ginger garlic paste goes away.
+Add the turmeric powder, chilli powder, cumin seeds powder, coriander powder and garam masala and saute for 4 to 5 minutes for the masalas to cook completely.
+Add methi leaves and saute for 1 minute till the masala is mixed well.
+Cover the pan or wok with a lid and let it cook on a slow flame for 4 to 5 minutes.
+Serve hot with rotis or phulkas.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/alu-methi-38680r</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,104 +3217,1712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:BR9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BR9" sqref="BR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.5703125"/>
-    <col min="2" max="2" customWidth="true" width="9.140625"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" t="s">
+        <v>134</v>
+      </c>
+      <c r="W2" t="s">
+        <v>141</v>
+      </c>
+      <c r="X2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>329</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>336</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>342</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>348</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>354</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>360</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>372</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>384</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>390</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>390</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>396</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>403</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>409</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>415</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>421</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S3" t="s">
+        <v>117</v>
+      </c>
+      <c r="T3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U3" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" t="s">
+        <v>135</v>
+      </c>
+      <c r="W3" t="s">
+        <v>142</v>
+      </c>
+      <c r="X3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>330</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>337</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>343</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>349</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>361</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>373</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>379</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>385</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>391</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>391</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>397</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>404</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>416</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>422</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" t="s">
+        <v>112</v>
+      </c>
+      <c r="S4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" t="s">
+        <v>130</v>
+      </c>
+      <c r="V4" t="s">
+        <v>136</v>
+      </c>
+      <c r="W4" t="s">
+        <v>143</v>
+      </c>
+      <c r="X4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>324</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>331</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>338</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>344</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>350</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>356</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>362</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>368</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>374</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>380</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>380</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>392</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>392</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>398</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>405</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>411</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>417</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>423</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" t="s">
+        <v>137</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>399</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" t="s">
+        <v>113</v>
+      </c>
+      <c r="S7" t="s">
+        <v>119</v>
+      </c>
+      <c r="T7" t="s">
+        <v>125</v>
+      </c>
+      <c r="U7" t="s">
+        <v>131</v>
+      </c>
+      <c r="V7" t="s">
+        <v>138</v>
+      </c>
+      <c r="W7" t="s">
+        <v>144</v>
+      </c>
+      <c r="X7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>256</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>263</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>288</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>319</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>326</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>333</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>339</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>345</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>351</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>357</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>363</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>369</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>375</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>381</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>381</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>387</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>393</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>393</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>400</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>406</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>412</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>418</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>424</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>108</v>
+      </c>
+      <c r="R8" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T8" t="s">
+        <v>126</v>
+      </c>
+      <c r="U8" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" t="s">
+        <v>139</v>
+      </c>
+      <c r="W8" t="s">
+        <v>145</v>
+      </c>
+      <c r="X8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>289</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>314</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>327</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>334</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>340</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>346</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>352</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>358</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>364</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>376</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>388</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>394</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>394</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>401</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>407</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>413</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>419</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R9" t="s">
+        <v>115</v>
+      </c>
+      <c r="S9" t="s">
+        <v>121</v>
+      </c>
+      <c r="T9" t="s">
+        <v>127</v>
+      </c>
+      <c r="U9" t="s">
+        <v>133</v>
+      </c>
+      <c r="V9" t="s">
+        <v>140</v>
+      </c>
+      <c r="W9" t="s">
+        <v>146</v>
+      </c>
+      <c r="X9" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>315</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>321</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>328</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>341</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>347</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>353</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>359</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>371</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>377</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>389</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>395</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>395</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>402</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>408</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>414</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>420</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
